--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\Projekt\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FABFEC-E0D9-4BD4-B034-98358E24E3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3CEFF7-41CF-4280-90D3-7A9F6FC8EB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Verbesserungsliste" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -167,13 +168,91 @@
   </si>
   <si>
     <t>Sophia</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 2</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich bequem von Zuhause aus Poker spielen können,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich die Höhe der Blinds und das Tischmaximum </t>
+  </si>
+  <si>
+    <t>festlegen können, um das Spiel an meine Bedürfnisse anpassen zu können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich das Startguthaben festlegen können, </t>
+  </si>
+  <si>
+    <t>um länger Spielen zu können und das Spiel interessanter zu gestalten.</t>
+  </si>
+  <si>
+    <t>Gamecontroller schreiben</t>
+  </si>
+  <si>
+    <t>Human Player erstellen</t>
+  </si>
+  <si>
+    <t>Rules schreiben</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t>Tests schreiben</t>
+  </si>
+  <si>
+    <t>Dealer-Klasse</t>
+  </si>
+  <si>
+    <t>Ausgabe-Klasse</t>
+  </si>
+  <si>
+    <t>Funktion um Hand zu bewerten</t>
+  </si>
+  <si>
+    <t>Funktion um Hände zu vergleichen</t>
+  </si>
+  <si>
+    <t>Tischmaximum</t>
+  </si>
+  <si>
+    <t>Startguthaben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich das Startguthaben festlegen könenn, </t>
+  </si>
+  <si>
+    <t>um länger spielen zu können und das Spiel interessanter zu gestalten.</t>
+  </si>
+  <si>
+    <t>Verbesserungsliste 1</t>
+  </si>
+  <si>
+    <t>Richtiges spielfähiges Programm schreiben bis zum nächsten Sprint</t>
+  </si>
+  <si>
+    <t>DailyScrum nicht mehr verpassen</t>
+  </si>
+  <si>
+    <t>Tests zur Sprintplanung hinzufügen</t>
+  </si>
+  <si>
+    <t>C++-Kenntnisse auf einen Stand bringen (z.B. durch Pair-Programming)</t>
+  </si>
+  <si>
+    <t>Projektplanung in Software einbetten (z.B. Planner von Teams)</t>
+  </si>
+  <si>
+    <t>Definition of Done erstellen für bessere Codequalität</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +285,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +325,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -554,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1231CDCA-BCC1-40BE-97F2-752A131DE8E8}">
-  <dimension ref="A6:H32"/>
+  <dimension ref="A6:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="36" zoomScaleNormal="100" zoomScalePageLayoutView="36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A30" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="A34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,6 +947,21 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -871,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69796A29-818F-4118-8EC5-E6E5A8699E3C}">
-  <dimension ref="A5:H37"/>
+  <dimension ref="A5:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A5" zoomScale="47" zoomScaleNormal="108" zoomScalePageLayoutView="47" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showRuler="0" view="pageLayout" topLeftCell="A59" zoomScale="47" zoomScaleNormal="108" zoomScalePageLayoutView="47" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,7 +986,7 @@
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="20" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -892,8 +996,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -901,8 +1012,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,8 +1032,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -923,8 +1048,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -937,8 +1069,16 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -949,8 +1089,16 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -961,23 +1109,41 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -985,11 +1151,19 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -997,35 +1171,59 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1033,20 +1231,32 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="4"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1054,222 +1264,1116 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>4</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>32</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>16</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <v>32</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1">
+        <v>16</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8196ECD-25D7-40D1-8279-045FB7F78B6C}">
+  <dimension ref="A6:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3CEFF7-41CF-4280-90D3-7A9F6FC8EB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B92541-C256-4C4F-B68F-C2247BDBC525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint Backlog 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Verbesserungsliste" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint Backlog Reviewliste" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -239,13 +240,154 @@
     <t>Tests zur Sprintplanung hinzufügen</t>
   </si>
   <si>
-    <t>C++-Kenntnisse auf einen Stand bringen (z.B. durch Pair-Programming)</t>
-  </si>
-  <si>
-    <t>Projektplanung in Software einbetten (z.B. Planner von Teams)</t>
-  </si>
-  <si>
-    <t>Definition of Done erstellen für bessere Codequalität</t>
+    <t>UML-Diagramm: Änderungen an der Struktur vornehmen</t>
+  </si>
+  <si>
+    <t>Menue: Zahlendreher auflösen</t>
+  </si>
+  <si>
+    <t>Rules: Datentypen verändern von String zu Enum</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Review Liste 1</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Review Liste 2</t>
+  </si>
+  <si>
+    <t>UML-Diagramm: An aktuelles Programm anpassen</t>
+  </si>
+  <si>
+    <t>Ausgabe: Sonderzeichenausgabe an ASCII-Zeichensatz anpassen</t>
+  </si>
+  <si>
+    <t>Tests: ausbauen</t>
+  </si>
+  <si>
+    <t>Rules: fertigstellen um sie einbinden zu könenn</t>
+  </si>
+  <si>
+    <t>Menue: Verbindung zum GameController herstellen</t>
+  </si>
+  <si>
+    <t>Verbesserungsliste 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">häufiger auf Pairprogramming zurückgreifen </t>
+  </si>
+  <si>
+    <t>UML-Diagramm in neuen Projekten zu Beginn gemeinsam erstellen</t>
+  </si>
+  <si>
+    <t>im Sprint früher mit der Fertigstellung von Aufgaben beginnen</t>
+  </si>
+  <si>
+    <t>Abhängigkeit von Aufgaben von anderen Teammitgliedern reduzieren</t>
+  </si>
+  <si>
+    <t>(z.B. durch Pair-Programming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++-Kenntnisse auf einen Stand bringen </t>
+  </si>
+  <si>
+    <t>Projektplanung in Software einbetten</t>
+  </si>
+  <si>
+    <t>(z.B. Planner von Teams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition of Done erstellen </t>
+  </si>
+  <si>
+    <t>für bessere Codequalität</t>
+  </si>
+  <si>
+    <t>Software muss getestet werden</t>
+  </si>
+  <si>
+    <t>v.a. zu Projektbeginn und bei komplexen Funktionen</t>
+  </si>
+  <si>
+    <t>einzelne Bausteine werden besser aufeinander abgestimt und verbessert Testbarkeit der Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Entwickler möchte ich das Startguthaben der Bots zufällig festlegen, </t>
+  </si>
+  <si>
+    <t>um ein aufregendes Spiel zu haben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich einen schlauen und dummen Bot zur Auswahl haben,  </t>
+  </si>
+  <si>
+    <t>um mein Spiel aufregend zu gestalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Entwickler möchte ich, dass die anderen Entwickler Code kommentieren, </t>
+  </si>
+  <si>
+    <t>um ihn besser verstehen zu können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Entwickler möchte das Menü und den Gamecontroller miteinander verknüpfen </t>
+  </si>
+  <si>
+    <t>um das Spiel spielbar zu machen</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich sowohl gegen reale Player als auch Bots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spielen können, um das Spiel abwechslungsreich zu gestalten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich die Eingabemöglichkeiten über die Konsole </t>
+  </si>
+  <si>
+    <t>auswählen können, damit das Spiel weiß was ich möchte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um eine sprachliche Einheit darzustellen </t>
+  </si>
+  <si>
+    <t>und die Ausgabe ordentlich zu gestalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Entwickler möchte das Menü und den Gamecontroller miteinander </t>
+  </si>
+  <si>
+    <t>verknüpfen, um das Spiel spielbar zu machen</t>
+  </si>
+  <si>
+    <t>Gewinnausgabe</t>
+  </si>
+  <si>
+    <t>Regeln abfragen</t>
+  </si>
+  <si>
+    <t>Dummen Bot erstellen</t>
+  </si>
+  <si>
+    <t>Schlauen Bot erstellen</t>
+  </si>
+  <si>
+    <t>Noah + Luca</t>
+  </si>
+  <si>
+    <t>Verbindung zum Gamecontroller</t>
+  </si>
+  <si>
+    <t>dummen Bot erstellen</t>
+  </si>
+  <si>
+    <t>Kommentare schreiben</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -300,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -308,11 +450,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,6 +485,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1231CDCA-BCC1-40BE-97F2-752A131DE8E8}">
-  <dimension ref="A6:H34"/>
+  <dimension ref="A6:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A30" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="A34:F34"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A20" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,301 +852,391 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -975,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69796A29-818F-4118-8EC5-E6E5A8699E3C}">
-  <dimension ref="A5:P98"/>
+  <dimension ref="A5:P161"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" topLeftCell="A59" zoomScale="47" zoomScaleNormal="108" zoomScalePageLayoutView="47" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A124" zoomScale="47" zoomScaleNormal="108" zoomScalePageLayoutView="47" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2047,7 +2322,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2056,7 +2331,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2064,6 +2339,870 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+    </row>
+    <row r="108" spans="1:15" ht="20" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+    </row>
+    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="4">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+    </row>
+    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+    </row>
+    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+    </row>
+    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="4">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+      <c r="B116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+    </row>
+    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+    </row>
+    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+    </row>
+    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="4">
+        <v>3</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+    </row>
+    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+      <c r="B120" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+    </row>
+    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+      <c r="B121" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+    </row>
+    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+    </row>
+    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+    </row>
+    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4"/>
+      <c r="B124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="4">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+      <c r="B127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+    </row>
+    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="13"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="19">
+        <v>6</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+    </row>
+    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="19"/>
+      <c r="B130" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+    </row>
+    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="19"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+    </row>
+    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="19">
+        <v>7</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="19"/>
+      <c r="B133" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="19"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+    </row>
+    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="19">
+        <v>8</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+    </row>
+    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="19"/>
+      <c r="B136" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+    </row>
+    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="19"/>
+      <c r="B137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="18"/>
+    </row>
+    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="19"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="19">
+        <v>9</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="19"/>
+      <c r="B140" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1">
+        <v>8</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="2"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
+        <v>64</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="2"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1">
+        <v>32</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="2"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1">
+        <v>16</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2"/>
+      <c r="B156" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="2"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1">
+        <v>16</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>115</v>
+      </c>
+      <c r="G161" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2077,17 +3216,387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8196ECD-25D7-40D1-8279-045FB7F78B6C}">
-  <dimension ref="A6:H33"/>
+  <dimension ref="A6:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView view="pageLayout" topLeftCell="A54" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="60.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>6</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="13">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E69860-4485-4286-92A4-64B6306813C8}">
+  <dimension ref="A6:H69"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="24" zoomScaleNormal="52" zoomScalePageLayoutView="24" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2106,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2130,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2154,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2174,12 +3683,8 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2198,12 +3703,8 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2222,12 +3723,8 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2246,7 +3743,7 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2266,7 +3763,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2286,7 +3783,7 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2306,7 +3803,7 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2375,6 +3872,116 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
     </row>
+    <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="6"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B92541-C256-4C4F-B68F-C2247BDBC525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D8BCF-BF79-427B-A4E9-91A37455BA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -388,13 +388,76 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Review Liste 3</t>
+  </si>
+  <si>
+    <t>Menue: Die Konsolenausgabe soll nach dem Anzeigen der Regeln wieder geleert werden</t>
+  </si>
+  <si>
+    <t>Menue: Schreibfehler beheben</t>
+  </si>
+  <si>
+    <t>Menü: Defaultnamen für den Bot anlegen</t>
+  </si>
+  <si>
+    <t>Output: Die Ausgabe der Währung soll auch in der Konsole ein $ darstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Player: Reihenfolge der Auswahl ändern </t>
+  </si>
+  <si>
+    <t>GameController: Bug in der Spielfunktion (-&gt; Endlosschleife)</t>
+  </si>
+  <si>
+    <t>Verbesserungsliste 3</t>
+  </si>
+  <si>
+    <t>Tasks zum Sprintende auch wirklich fertigstellen</t>
+  </si>
+  <si>
+    <t>Task am Anfang des Sprints beginnen, nicht erst zum Ende des Sprints hin</t>
+  </si>
+  <si>
+    <t>Offener Reden und dann direkt erkennen, dass ein Task zu kompliziert wird für den Sprint</t>
+  </si>
+  <si>
+    <t>Branches aktuell halten</t>
+  </si>
+  <si>
+    <t>Nur kommentierten und compilierten Code pushen</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Spieler möchte ich einen schlauen und dummen Bot zur Auswahl haben, </t>
+  </si>
+  <si>
+    <t>um mein Spiel aufregend zu gestalten.</t>
+  </si>
+  <si>
+    <t>BugFixing</t>
+  </si>
+  <si>
+    <t>(Schlauen Bot erstellen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML-Diagramm </t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Miriam + Sophia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +496,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Ariall"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Ariall"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ariall"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -442,7 +520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -450,26 +528,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,16 +558,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +566,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,13 +902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1231CDCA-BCC1-40BE-97F2-752A131DE8E8}">
   <dimension ref="A6:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A20" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G46"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A27" zoomScale="82" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,395 +917,395 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" ht="15.5">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:8" ht="15.5">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="10" spans="1:8" ht="15.5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:8" ht="15.5">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:8" ht="15.5">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+    <row r="13" spans="1:8" ht="15.5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:8" ht="15.5">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:8" ht="15.5">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+    <row r="16" spans="1:8" ht="15.5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:8" ht="15.5">
+      <c r="A17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:8" ht="15.5">
+      <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+    <row r="19" spans="1:8" ht="15.5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:8" ht="15.5">
+      <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:8" ht="15.5">
+      <c r="A21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:8" ht="15.5">
+      <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+    <row r="23" spans="1:8" ht="15.5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:8" ht="15.5">
+      <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:8" ht="15.5">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+    <row r="26" spans="1:8" ht="15.5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:8" ht="15.5">
+      <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:8" ht="15.5">
+      <c r="A28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+    <row r="29" spans="1:8" ht="15.5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:8" ht="15.5">
+      <c r="A30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:8" ht="15.5">
+      <c r="A31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+    <row r="32" spans="1:8" ht="15.5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.5">
+      <c r="A33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.5">
+      <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.5">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.5">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.5">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.5">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.5">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.5">
       <c r="A43" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.5">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.5">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1250,18 +1322,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69796A29-818F-4118-8EC5-E6E5A8699E3C}">
-  <dimension ref="A5:P161"/>
+  <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A124" zoomScale="47" zoomScaleNormal="108" zoomScalePageLayoutView="47" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView showRuler="0" showWhiteSpace="0" view="pageLayout" zoomScale="52" zoomScaleNormal="108" zoomScalePageLayoutView="52" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="20">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1271,6 +1383,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1279,7 +1392,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1287,6 +1400,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1295,7 +1409,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.5">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1307,6 +1421,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -1315,7 +1430,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.5">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1323,6 +1438,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1331,7 +1447,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.5">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1343,7 +1459,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="4"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1353,7 +1469,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.5">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1363,7 +1479,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1373,7 +1489,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.5">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -1383,7 +1499,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1393,7 +1509,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.5">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1405,7 +1521,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1415,7 +1531,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15.5">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1425,7 +1541,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1435,7 +1551,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.5">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1445,7 +1561,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1455,7 +1571,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.5">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1463,7 +1579,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1473,7 +1589,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.5">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -1485,7 +1601,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1495,7 +1611,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.5">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -1505,7 +1621,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1515,7 +1631,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1523,6 +1639,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="4"/>
       <c r="J18" s="8"/>
       <c r="K18" s="1"/>
@@ -1531,7 +1648,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1539,6 +1656,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1547,7 +1665,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1561,6 +1679,7 @@
       <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1569,7 +1688,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1577,6 +1696,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1585,7 +1705,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.5">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1599,6 +1719,7 @@
       <c r="G22" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1607,7 +1728,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.5">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1615,6 +1736,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1623,7 +1745,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.5">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1637,6 +1759,7 @@
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1645,7 +1768,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.5">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1653,6 +1776,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1661,7 +1785,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.5">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1675,6 +1799,7 @@
       <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1683,7 +1808,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.5">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1691,6 +1816,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1699,7 +1825,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.5">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1713,6 +1839,7 @@
       <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1721,7 +1848,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.5">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1729,6 +1856,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1737,7 +1865,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.5">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1751,6 +1879,7 @@
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1759,7 +1888,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.5">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1767,6 +1896,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1775,7 +1905,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.5">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1789,6 +1919,7 @@
       <c r="G32" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1797,7 +1928,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.5">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1805,6 +1936,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1813,7 +1945,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.5">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1827,6 +1959,7 @@
       <c r="G34" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1835,7 +1968,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.5">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1843,6 +1976,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1851,7 +1985,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.5">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1865,6 +1999,7 @@
       <c r="G36" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1873,7 +2008,207 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="20">
       <c r="A57" s="3" t="s">
         <v>44</v>
       </c>
@@ -1883,8 +2218,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1892,8 +2228,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.5">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
@@ -1905,8 +2242,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.5">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1914,8 +2252,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.5">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -1927,9 +2266,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.5">
       <c r="A62" s="4"/>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -1939,9 +2278,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.5">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1949,9 +2288,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.5">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -1963,9 +2302,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.5">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>26</v>
@@ -1975,9 +2314,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.5">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>27</v>
@@ -1987,9 +2326,9 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.5">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1997,9 +2336,9 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.5">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -2011,9 +2350,9 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.5">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>47</v>
@@ -2023,9 +2362,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2033,12 +2372,13 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.5">
       <c r="A71" s="4">
         <v>4</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="1"/>
@@ -2046,10 +2386,11 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.5">
       <c r="A72" s="4"/>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C72" s="1"/>
@@ -2057,26 +2398,29 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.5">
       <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.5">
       <c r="A74" s="4"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2084,8 +2428,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -2099,8 +2444,9 @@
       <c r="G76" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2108,8 +2454,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.5">
       <c r="A78" s="2" t="s">
         <v>50</v>
       </c>
@@ -2123,8 +2470,9 @@
       <c r="G78" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.5">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>55</v>
@@ -2134,8 +2482,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.5">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>56</v>
@@ -2145,8 +2494,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.5">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2154,8 +2504,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.5">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -2169,8 +2520,9 @@
       <c r="G82" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.5">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2178,8 +2530,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.5">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -2193,8 +2546,9 @@
       <c r="G84" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.5">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>57</v>
@@ -2204,8 +2558,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.5">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>58</v>
@@ -2215,8 +2570,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.5">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2224,8 +2580,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.5">
       <c r="A88" s="2" t="s">
         <v>53</v>
       </c>
@@ -2239,8 +2596,9 @@
       <c r="G88" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.5">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>59</v>
@@ -2250,8 +2608,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.5">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>60</v>
@@ -2261,8 +2620,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.5">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2270,8 +2630,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.5">
       <c r="A92" s="2" t="s">
         <v>54</v>
       </c>
@@ -2285,8 +2646,9 @@
       <c r="G92" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.5">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2294,35 +2656,43 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.5">
+      <c r="A94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5">
       <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.5">
+      <c r="A96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.5">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2330,8 +2700,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.5">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2339,17 +2710,106 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-    </row>
-    <row r="108" spans="1:15" ht="20" x14ac:dyDescent="0.4">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" ht="15.5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+    </row>
+    <row r="108" spans="1:15" ht="20">
       <c r="A108" s="3" t="s">
         <v>99</v>
       </c>
@@ -2359,15 +2819,16 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-    </row>
-    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H108" s="1"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+    </row>
+    <row r="109" spans="1:15" ht="15.5">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2375,52 +2836,55 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-    </row>
-    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H109" s="1"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+    </row>
+    <row r="110" spans="1:15" ht="15.5">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-    </row>
-    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+    </row>
+    <row r="111" spans="1:15" ht="15.5">
       <c r="A111" s="2"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-    </row>
-    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="4">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+    </row>
+    <row r="112" spans="1:15" ht="15.5">
+      <c r="A112" s="15">
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -2431,17 +2895,17 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-    </row>
-    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+    </row>
+    <row r="113" spans="1:15" ht="15.5">
+      <c r="A113" s="15"/>
       <c r="B113" s="2" t="s">
         <v>107</v>
       </c>
@@ -2450,34 +2914,34 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-    </row>
-    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="4"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+    </row>
+    <row r="114" spans="1:15" ht="15.5">
+      <c r="A114" s="15"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-    </row>
-    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4">
+      <c r="H114" s="2"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+    </row>
+    <row r="115" spans="1:15" ht="15.5">
+      <c r="A115" s="15">
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -2488,17 +2952,17 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-    </row>
-    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="4"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.5">
+      <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
         <v>94</v>
       </c>
@@ -2507,54 +2971,54 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-    </row>
-    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+    </row>
+    <row r="117" spans="1:15" ht="15.5">
+      <c r="A117" s="15"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-    </row>
-    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="4"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+    </row>
+    <row r="118" spans="1:15" ht="15.5">
+      <c r="A118" s="15"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-    </row>
-    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="4">
+      <c r="H118" s="2"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+    </row>
+    <row r="119" spans="1:15" ht="15.5">
+      <c r="A119" s="15">
         <v>3</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="13" t="s">
         <v>100</v>
       </c>
       <c r="C119" s="2"/>
@@ -2562,18 +3026,18 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-    </row>
-    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4"/>
-      <c r="B120" s="17" t="s">
+      <c r="H119" s="2"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+    </row>
+    <row r="120" spans="1:15" ht="15.5">
+      <c r="A120" s="15"/>
+      <c r="B120" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C120" s="2"/>
@@ -2581,18 +3045,18 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-    </row>
-    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="4"/>
-      <c r="B121" s="17" t="s">
+      <c r="H120" s="2"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+    </row>
+    <row r="121" spans="1:15" ht="15.5">
+      <c r="A121" s="15"/>
+      <c r="B121" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="2"/>
@@ -2600,34 +3064,34 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-    </row>
-    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="4"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+    </row>
+    <row r="122" spans="1:15" ht="15.5">
+      <c r="A122" s="15"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-    </row>
-    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4">
+      <c r="H122" s="2"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+    </row>
+    <row r="123" spans="1:15" ht="15.5">
+      <c r="A123" s="15">
         <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -2638,17 +3102,17 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-    </row>
-    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+    </row>
+    <row r="124" spans="1:15" ht="15.5">
+      <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
         <v>92</v>
       </c>
@@ -2657,552 +3121,999 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-    </row>
-    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-    </row>
-    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="4">
+      <c r="H124" s="2"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.5">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.5">
+      <c r="A126" s="15">
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-    </row>
-    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="4"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+    </row>
+    <row r="127" spans="1:15" ht="15.5">
+      <c r="A127" s="15"/>
       <c r="B127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-    </row>
-    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="13"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-    </row>
-    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="19">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+    </row>
+    <row r="128" spans="1:15" ht="15.5">
+      <c r="A128" s="15"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.5">
+      <c r="A129" s="15">
         <v>6</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="18"/>
-    </row>
-    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="19"/>
-      <c r="B130" s="17" t="s">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+    </row>
+    <row r="130" spans="1:15" ht="15.5">
+      <c r="A130" s="15"/>
+      <c r="B130" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="18"/>
-    </row>
-    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="19"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-    </row>
-    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="19">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+    </row>
+    <row r="131" spans="1:15" ht="15.5">
+      <c r="A131" s="15"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+    </row>
+    <row r="132" spans="1:15" ht="15.5">
+      <c r="A132" s="15">
         <v>7</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-    </row>
-    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="19"/>
-      <c r="B133" s="17" t="s">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.5">
+      <c r="A133" s="15"/>
+      <c r="B133" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="18"/>
-    </row>
-    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="19"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-    </row>
-    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="19">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.5">
+      <c r="A134" s="15"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+    </row>
+    <row r="135" spans="1:15" ht="15.5">
+      <c r="A135" s="15">
         <v>8</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-    </row>
-    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="19"/>
-      <c r="B136" s="17" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+    </row>
+    <row r="136" spans="1:15" ht="15.5">
+      <c r="A136" s="15"/>
+      <c r="B136" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-    </row>
-    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="19"/>
-      <c r="B137" s="1" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+    </row>
+    <row r="137" spans="1:15" ht="15.5">
+      <c r="A137" s="15"/>
+      <c r="B137" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="18"/>
-    </row>
-    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="19"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="14"/>
+    </row>
+    <row r="138" spans="1:15" ht="15.5">
+      <c r="A138" s="15"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="19">
+    <row r="139" spans="1:15" ht="15.5">
+      <c r="A139" s="15">
         <v>9</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="19"/>
-      <c r="B140" s="17" t="s">
+    <row r="140" spans="1:15" ht="15.5">
+      <c r="A140" s="15"/>
+      <c r="B140" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="15.5">
       <c r="A141" s="2"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="15.5">
       <c r="A142" s="2"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:15" ht="15.5">
+      <c r="A143" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1" t="s">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+    <row r="144" spans="1:15" ht="15.5">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="15.5">
       <c r="A145" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2">
         <v>8</v>
       </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1" t="s">
+      <c r="F145" s="2"/>
+      <c r="G145" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="15.5">
       <c r="A146" s="2"/>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="15.5">
       <c r="A147" s="2"/>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="15.5">
       <c r="A148" s="2"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15.5">
       <c r="A149" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2">
         <v>8</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1" t="s">
+      <c r="F149" s="2"/>
+      <c r="G149" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15.5">
       <c r="A150" s="2"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.5">
       <c r="A151" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2">
         <v>64</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1" t="s">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.5">
       <c r="A152" s="2"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.5">
       <c r="A153" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2">
         <v>32</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1" t="s">
+      <c r="F153" s="2"/>
+      <c r="G153" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.5">
       <c r="A154" s="2"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.5">
       <c r="A155" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2">
         <v>16</v>
       </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1" t="s">
+      <c r="F155" s="2"/>
+      <c r="G155" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.5">
       <c r="A156" s="2"/>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.5">
       <c r="A157" s="2"/>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.5">
       <c r="A158" s="2"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.5">
       <c r="A159" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2">
         <v>16</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1" t="s">
+      <c r="F159" s="2"/>
+      <c r="G159" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.5">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.5">
+      <c r="A161" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G161" t="s">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" ht="15.5">
+      <c r="A163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.5">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" ht="15.5">
+      <c r="A165" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="20">
+      <c r="A211" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" ht="15.5">
+      <c r="A213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="1:8" ht="15.5">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="1:8" ht="15.5">
+      <c r="A215" s="15">
+        <v>1</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" ht="15.5">
+      <c r="A216" s="15"/>
+      <c r="B216" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="1:8" ht="15.5">
+      <c r="A217" s="15"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" ht="15.5">
+      <c r="A218" s="15">
+        <v>2</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" ht="15.5">
+      <c r="A219" s="15"/>
+      <c r="B219" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" ht="15.5">
+      <c r="A220" s="15"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" ht="15.5">
+      <c r="A221" s="15"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8" ht="15.5">
+      <c r="A222" s="15">
+        <v>3</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" ht="15.5">
+      <c r="A223" s="15"/>
+      <c r="B223" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" ht="15.5">
+      <c r="A224" s="15"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8" ht="15.5">
+      <c r="A225" s="15">
+        <v>4</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" ht="15.5">
+      <c r="A226" s="15"/>
+      <c r="B226" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" ht="15.5">
+      <c r="A227" s="2"/>
+      <c r="B227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="1:8" ht="15.5">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:8" ht="15.5">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" ht="15.5">
+      <c r="A230" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" ht="15.5">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="1:8" ht="15.5">
+      <c r="A232" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" ht="15.5">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" ht="15.5">
+      <c r="A234" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8" ht="15.5">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8" ht="15.5">
+      <c r="A236" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="238" spans="1:8" ht="15.5">
+      <c r="A238" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" ht="15.5">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" ht="15.5">
+      <c r="A240" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.5">
+      <c r="A244" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F244" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3216,362 +4127,332 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8196ECD-25D7-40D1-8279-045FB7F78B6C}">
-  <dimension ref="A6:H67"/>
+  <dimension ref="A6:E122"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A54" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="18"/>
+    <col min="2" max="2" width="60.54296875" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="18"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.5">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="C8" s="22"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.5">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.5">
+      <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="C10" s="22"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.5">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.5">
+      <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.5">
+      <c r="A14" s="21">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.5">
+      <c r="A16" s="21">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.5">
+      <c r="A18" s="21">
         <v>6</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="59" spans="1:3" ht="20" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.5">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="19"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="19"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="19"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="19"/>
+    </row>
+    <row r="59" spans="1:4" ht="20">
+      <c r="A59" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="13">
+    <row r="61" spans="1:4" ht="15.5">
+      <c r="A61" s="20">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="13">
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.5">
+      <c r="A62" s="20"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.5">
+      <c r="A63" s="20">
         <v>2</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="13">
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.5">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.5">
+      <c r="A65" s="20">
         <v>3</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="13">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.5">
+      <c r="A66" s="20"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.5">
+      <c r="A67" s="20">
         <v>4</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="17" t="s">
         <v>81</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.5">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.5">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="112" spans="1:1" ht="20">
+      <c r="A112" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.5">
+      <c r="A114" s="20">
+        <v>1</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.5">
+      <c r="A115" s="20"/>
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.5">
+      <c r="A116" s="20">
+        <v>2</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.5">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.5">
+      <c r="A118" s="20">
+        <v>3</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.5">
+      <c r="A119" s="20"/>
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.5">
+      <c r="A120" s="20">
+        <v>4</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.5">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.5">
+      <c r="A122" s="20">
+        <v>5</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3586,15 +4467,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E69860-4485-4286-92A4-64B6306813C8}">
-  <dimension ref="A6:H69"/>
+  <dimension ref="A6:G125"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="24" zoomScaleNormal="52" zoomScalePageLayoutView="24" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView view="pageLayout" topLeftCell="A113" zoomScale="67" zoomScaleNormal="52" zoomScalePageLayoutView="67" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="20">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -3603,384 +4487,400 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:6" ht="15.5">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="9"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="9"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="9"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" ht="15.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="6"/>
     </row>
-    <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="20">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+    </row>
+    <row r="60" spans="1:5" ht="15.5">
+      <c r="A60" s="24"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.5">
+      <c r="A61" s="24">
         <v>1</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="6"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.5">
+      <c r="A62" s="13"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.5">
+      <c r="A63" s="24">
         <v>2</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="6"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.5">
+      <c r="A64" s="13"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.5">
+      <c r="A65" s="24">
         <v>3</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="6"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.5">
+      <c r="A66" s="13"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.5">
+      <c r="A67" s="24">
         <v>4</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="6"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.5">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.5">
+      <c r="A69" s="24">
         <v>5</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="7"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="112" spans="1:2" ht="20">
+      <c r="A112" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.5">
+      <c r="A113" s="24"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.5">
+      <c r="A114" s="24">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.5">
+      <c r="A115" s="13"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.5">
+      <c r="A116" s="24">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.5">
+      <c r="A117" s="13"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.5">
+      <c r="A118" s="24">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.5">
+      <c r="A119" s="13"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.5">
+      <c r="A120" s="24">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.5">
+      <c r="A121" s="13"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.5">
+      <c r="A122" s="24">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.5">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.5">
+      <c r="A124" s="15">
+        <v>6</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.5">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D8BCF-BF79-427B-A4E9-91A37455BA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F85B8-5A2D-4653-BBCE-53F1D7FDF634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -51,48 +51,12 @@
     <t>damit ich mich nicht mit Corona anstecke.</t>
   </si>
   <si>
-    <t>Als Spieler möchte ich eine Erklärung der Regeln vor dem Spiel bekommen können,</t>
-  </si>
-  <si>
-    <t>damit ich nicht googeln muss und damit die Regeln klar definiert sind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Spieler möchte ich die Eingabemöglichkeiten über die Konsole auswählen können, </t>
-  </si>
-  <si>
-    <t>damit das Spiel weiß was ich möchte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Entwickler möchte ich das Guthaben der Spieler in Form von Chips darstellen, </t>
-  </si>
-  <si>
-    <t>um das Spiel so realitätsnah wie möglich zu gestalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Spieler möchte ich sowohl gegen reale Player als auch Bots spielen können, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">um das Spiel abwechslungsreich zu gestalten </t>
-  </si>
-  <si>
     <t>und um auch mit Freunden/alleine spielen zu können.</t>
   </si>
   <si>
     <t xml:space="preserve">Als Entwickler möchte ich die Ausgabe in englischer Sprache gestalten, </t>
   </si>
   <si>
-    <t>um eine sprachliche Einheit darzustellen und die Ausgabe ordentlich zu gestalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Spieler möchte ich die Höhe der Blinds und das Tischmaximum festlegen können, </t>
-  </si>
-  <si>
-    <t>um das Spiel an meine Bedürfnisse anpassen zu können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Als Spieler möchte ich die Anzahl der Mitspieler festlegen können, </t>
-  </si>
-  <si>
     <t>um das Spiel abwechslungsreich machen zu können.</t>
   </si>
   <si>
@@ -222,12 +186,6 @@
     <t>Startguthaben</t>
   </si>
   <si>
-    <t xml:space="preserve">Als Spieler möchte ich das Startguthaben festlegen könenn, </t>
-  </si>
-  <si>
-    <t>um länger spielen zu können und das Spiel interessanter zu gestalten.</t>
-  </si>
-  <si>
     <t>Verbesserungsliste 1</t>
   </si>
   <si>
@@ -330,12 +288,6 @@
     <t>um ihn besser verstehen zu können</t>
   </si>
   <si>
-    <t xml:space="preserve">Als Entwickler möchte das Menü und den Gamecontroller miteinander verknüpfen </t>
-  </si>
-  <si>
-    <t>um das Spiel spielbar zu machen</t>
-  </si>
-  <si>
     <t>Sprint Backlog 3</t>
   </si>
   <si>
@@ -451,6 +403,45 @@
   </si>
   <si>
     <t>Miriam + Sophia</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte das Menü und den Gamecontroller miteinander verknüpfen, um das Spiel spielbar zu machen</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich, dass die anderen Entwickler Code kommentieren, um ihn besser verstehen zu können</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich einen schlauen und dummen Bot zur Auswahl haben, um mein Spiel aufregend zu gestalten</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich bequem von Zuhause aus Poker spielen können, damit ich mich nicht mit Corona anstecke.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich eine Erklärung der Regeln vor dem Spiel bekommen können, damit ich nicht googeln muss und damit die Regeln klar definiert sind.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich die Eingabemöglichkeiten über die Konsole auswählen können, damit das Spiel weiß was ich möchte.</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich das Guthaben der Spieler in Form von Chips darstellen, um das Spiel so realitätsnah wie möglich zu gestalten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich sowohl gegen reale Player als auch Bots spielen können, um das Spiel abwechslungsreich zu gestalten und um auch mit Freunden/alleine spielen zu können.</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich die Ausgabe in englischer Sprache gestalten, um eine sprachliche Einheit darzustellen und die Ausgabe ordentlich zu gestalten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich die Höhe der Blinds und das Tischmaximum festlegen können, um das Spiel an meine Bedürfnisse anpassen zu können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich die Anzahl der Mitspieler festlegen können, um das Spiel abwechslungsreich machen zu können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das Startguthaben festlegen könenn, um länger spielen zu können und das Spiel interessanter zu gestalten.</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich das Startguthaben der Bots zufällig festlegen, um ein aufregendes Spiel zu haben</t>
   </si>
 </sst>
 </file>
@@ -900,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1231CDCA-BCC1-40BE-97F2-752A131DE8E8}">
-  <dimension ref="A6:H47"/>
+  <dimension ref="A6:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A27" zoomScale="82" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H46"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A20" zoomScale="82" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="A22" activeCellId="5" sqref="A21:XFD21 A18:XFD18 A15:XFD15 A12:XFD12 A9:XFD9 A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -926,7 +917,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="13" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -937,9 +928,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.5">
-      <c r="A9" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -949,7 +938,9 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.5">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -959,9 +950,7 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.5">
-      <c r="A11" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -972,7 +961,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.5">
       <c r="A12" s="13" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -994,7 +983,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.5">
       <c r="A14" s="13" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1005,9 +994,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="15.5">
-      <c r="A15" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1017,7 +1004,9 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="15.5">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1027,9 +1016,7 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15.5">
-      <c r="A17" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1040,7 +1027,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.5">
       <c r="A18" s="13" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1062,7 +1049,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.5">
       <c r="A20" s="13" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1073,9 +1060,7 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="15.5">
-      <c r="A21" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1086,7 +1071,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.5">
       <c r="A22" s="13" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1104,211 +1089,75 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="15.5">
       <c r="A24" s="13" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="15.5">
-      <c r="A25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="7"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="7"/>
+      <c r="A26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15.5">
-      <c r="A27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="7"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="15.5">
-      <c r="A28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="15.5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="7"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15.5">
-      <c r="A30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="15.5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.5">
-      <c r="A33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.5">
-      <c r="A34" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.5">
-      <c r="A36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.5">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.5">
-      <c r="A39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.5">
-      <c r="A40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.5">
-      <c r="A42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.5">
-      <c r="A43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.5">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.5">
-      <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1324,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69796A29-818F-4118-8EC5-E6E5A8699E3C}">
   <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView showRuler="0" showWhiteSpace="0" view="pageLayout" zoomScale="52" zoomScaleNormal="108" zoomScalePageLayoutView="52" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A9" zoomScale="68" zoomScaleNormal="108" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1411,10 +1260,10 @@
     </row>
     <row r="7" spans="1:16" ht="15.5">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1452,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1472,7 +1321,7 @@
     <row r="10" spans="1:16" ht="15.5">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1492,7 +1341,7 @@
     <row r="11" spans="1:16" ht="15.5">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1514,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1534,7 +1383,7 @@
     <row r="13" spans="1:16" ht="15.5">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1554,7 +1403,7 @@
     <row r="14" spans="1:16" ht="15.5">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1594,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1614,7 +1463,7 @@
     <row r="17" spans="1:16" ht="15.5">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1667,17 +1516,17 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1707,7 +1556,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.5">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1717,7 +1566,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
@@ -1747,7 +1596,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.5">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1757,7 +1606,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
@@ -1787,7 +1636,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.5">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1797,7 +1646,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>
@@ -1827,7 +1676,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.5">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1837,7 +1686,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
@@ -1867,7 +1716,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.5">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1877,7 +1726,7 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
@@ -1907,7 +1756,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.5">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1917,7 +1766,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
@@ -1947,7 +1796,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.5">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1957,7 +1806,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
@@ -1987,7 +1836,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.5">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1997,7 +1846,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
@@ -2210,7 +2059,7 @@
     </row>
     <row r="57" spans="1:8" ht="20">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2232,10 +2081,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.5">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2259,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2295,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2307,7 +2156,7 @@
     <row r="65" spans="1:8" ht="15.5">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2319,7 +2168,7 @@
     <row r="66" spans="1:8" ht="15.5">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2343,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2355,7 +2204,7 @@
     <row r="69" spans="1:8" ht="15.5">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2379,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2391,7 +2240,7 @@
     <row r="72" spans="1:8" ht="15.5">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2432,17 +2281,17 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H76" s="1"/>
     </row>
@@ -2458,7 +2307,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.5">
       <c r="A78" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2468,14 +2317,14 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15.5">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2487,7 +2336,7 @@
     <row r="80" spans="1:8" ht="15.5">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2508,7 +2357,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.5">
       <c r="A82" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2518,7 +2367,7 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -2534,7 +2383,7 @@
     </row>
     <row r="84" spans="1:8" ht="15.5">
       <c r="A84" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2544,14 +2393,14 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15.5">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2563,7 +2412,7 @@
     <row r="86" spans="1:8" ht="15.5">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2584,7 +2433,7 @@
     </row>
     <row r="88" spans="1:8" ht="15.5">
       <c r="A88" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2594,14 +2443,14 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15.5">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2613,7 +2462,7 @@
     <row r="90" spans="1:8" ht="15.5">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2634,7 +2483,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.5">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2644,7 +2493,7 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -2660,7 +2509,7 @@
     </row>
     <row r="94" spans="1:8" ht="15.5">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2668,7 +2517,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.5">
@@ -2681,7 +2530,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.5">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2689,7 +2538,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15.5">
@@ -2811,7 +2660,7 @@
     </row>
     <row r="108" spans="1:15" ht="20">
       <c r="A108" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2847,10 +2696,10 @@
     </row>
     <row r="110" spans="1:15" ht="15.5">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2888,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2907,7 +2756,7 @@
     <row r="113" spans="1:15" ht="15.5">
       <c r="A113" s="15"/>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2945,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2964,7 +2813,7 @@
     <row r="116" spans="1:15" ht="15.5">
       <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3019,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3038,7 +2887,7 @@
     <row r="120" spans="1:15" ht="15.5">
       <c r="A120" s="15"/>
       <c r="B120" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3057,7 +2906,7 @@
     <row r="121" spans="1:15" ht="15.5">
       <c r="A121" s="15"/>
       <c r="B121" s="13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3095,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3114,7 +2963,7 @@
     <row r="124" spans="1:15" ht="15.5">
       <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3152,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3171,7 +3020,7 @@
     <row r="127" spans="1:15" ht="15.5">
       <c r="A127" s="15"/>
       <c r="B127" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3209,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3228,7 +3077,7 @@
     <row r="130" spans="1:15" ht="15.5">
       <c r="A130" s="15"/>
       <c r="B130" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3266,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3285,7 +3134,7 @@
     <row r="133" spans="1:15" ht="15.5">
       <c r="A133" s="15"/>
       <c r="B133" s="13" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3323,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3342,7 +3191,7 @@
     <row r="136" spans="1:15" ht="15.5">
       <c r="A136" s="15"/>
       <c r="B136" s="13" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3361,7 +3210,7 @@
     <row r="137" spans="1:15" ht="15.5">
       <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3450,17 +3299,17 @@
     </row>
     <row r="143" spans="1:15" ht="15.5">
       <c r="A143" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -3482,7 +3331,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.5">
       <c r="A145" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3492,7 +3341,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -3502,7 +3351,7 @@
     <row r="146" spans="1:11" ht="15.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3517,7 +3366,7 @@
     <row r="147" spans="1:11" ht="15.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3544,7 +3393,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.5">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3554,7 +3403,7 @@
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -3576,7 +3425,7 @@
     </row>
     <row r="151" spans="1:11" ht="15.5">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3586,7 +3435,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -3605,7 +3454,7 @@
     </row>
     <row r="153" spans="1:11" ht="15.5">
       <c r="A153" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3615,7 +3464,7 @@
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H153" s="2"/>
     </row>
@@ -3631,7 +3480,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.5">
       <c r="A155" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3641,14 +3490,14 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="1:11" ht="15.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3660,7 +3509,7 @@
     <row r="157" spans="1:11" ht="15.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3681,7 +3530,7 @@
     </row>
     <row r="159" spans="1:11" ht="15.5">
       <c r="A159" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3691,7 +3540,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H159" s="2"/>
     </row>
@@ -3707,7 +3556,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.5">
       <c r="A161" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3715,7 +3564,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -3731,7 +3580,7 @@
     </row>
     <row r="163" spans="1:8" ht="15.5">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3739,7 +3588,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.5">
@@ -3752,7 +3601,7 @@
     </row>
     <row r="165" spans="1:8" ht="15.5">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3760,12 +3609,12 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="20">
       <c r="A211" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3787,10 +3636,10 @@
     </row>
     <row r="213" spans="1:8" ht="15.5">
       <c r="A213" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -3850,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -3862,7 +3711,7 @@
     <row r="219" spans="1:8" ht="15.5">
       <c r="A219" s="15"/>
       <c r="B219" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -3896,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -3908,7 +3757,7 @@
     <row r="223" spans="1:8" ht="15.5">
       <c r="A223" s="15"/>
       <c r="B223" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -3932,7 +3781,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -3944,7 +3793,7 @@
     <row r="226" spans="1:8" ht="15.5">
       <c r="A226" s="15"/>
       <c r="B226" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -3956,7 +3805,7 @@
     <row r="227" spans="1:8" ht="15.5">
       <c r="A227" s="2"/>
       <c r="B227" s="13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -3987,13 +3836,13 @@
     </row>
     <row r="230" spans="1:8" ht="15.5">
       <c r="A230" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -4011,13 +3860,13 @@
     </row>
     <row r="232" spans="1:8" ht="15.5">
       <c r="A232" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -4035,13 +3884,13 @@
     </row>
     <row r="234" spans="1:8" ht="15.5">
       <c r="A234" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -4059,13 +3908,13 @@
     </row>
     <row r="236" spans="1:8" ht="15.5">
       <c r="A236" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -4073,13 +3922,13 @@
     </row>
     <row r="238" spans="1:8" ht="15.5">
       <c r="A238" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F238" s="2"/>
     </row>
@@ -4093,25 +3942,25 @@
     </row>
     <row r="240" spans="1:8" ht="15.5">
       <c r="A240" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="244" spans="1:6" ht="15.5">
       <c r="A244" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F244" s="2"/>
     </row>
@@ -4127,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8196ECD-25D7-40D1-8279-045FB7F78B6C}">
-  <dimension ref="A6:E122"/>
+  <dimension ref="A6:E114"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A98" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4142,7 +3991,7 @@
   <sheetData>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4150,127 +3999,103 @@
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="15.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="15.5">
       <c r="A8" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="15.5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="21">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="15.5">
       <c r="A10" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="15.5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="21">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="15.5">
       <c r="A12" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="15.5">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="15.5">
-      <c r="A14" s="21">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.5">
-      <c r="A16" s="21">
-        <v>5</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.5">
-      <c r="A18" s="21">
-        <v>6</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="19"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="19"/>
@@ -4287,172 +4112,120 @@
     <row r="24" spans="1:5">
       <c r="A24" s="19"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:5" ht="15.5">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="19"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="19"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="19"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="19"/>
-    </row>
-    <row r="59" spans="1:4" ht="20">
-      <c r="A59" s="16" t="s">
-        <v>77</v>
-      </c>
+    <row r="55" spans="1:4" ht="20">
+      <c r="A55" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.5">
+      <c r="A56" s="20">
+        <v>1</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.5">
+      <c r="A57" s="20">
+        <v>2</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.5">
+      <c r="A58" s="20">
+        <v>3</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.5">
+      <c r="A59" s="20">
+        <v>4</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.5">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" ht="15.5">
-      <c r="A61" s="20">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="109" spans="1:2" ht="20">
+      <c r="A109" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.5">
+      <c r="A110" s="20">
         <v>1</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.5">
-      <c r="A62" s="20"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.5">
-      <c r="A63" s="20">
+      <c r="B110" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.5">
+      <c r="A111" s="20">
         <v>2</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.5">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.5">
-      <c r="A65" s="20">
+      <c r="B111" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.5">
+      <c r="A112" s="20">
         <v>3</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.5">
-      <c r="A66" s="20"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.5">
-      <c r="A67" s="20">
+      <c r="B112" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.5">
+      <c r="A113" s="20">
         <v>4</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.5">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.5">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="112" spans="1:1" ht="20">
-      <c r="A112" s="16" t="s">
-        <v>124</v>
+      <c r="B113" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.5">
       <c r="A114" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.5">
-      <c r="A115" s="20"/>
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" spans="1:2" ht="15.5">
-      <c r="A116" s="20">
-        <v>2</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.5">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118" spans="1:2" ht="15.5">
-      <c r="A118" s="20">
-        <v>3</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.5">
-      <c r="A119" s="20"/>
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120" spans="1:2" ht="15.5">
-      <c r="A120" s="20">
-        <v>4</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.5">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.5">
-      <c r="A122" s="20">
-        <v>5</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4467,10 +4240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E69860-4485-4286-92A4-64B6306813C8}">
-  <dimension ref="A6:G125"/>
+  <dimension ref="A6:G119"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A113" zoomScale="67" zoomScaleNormal="52" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:G125"/>
+    <sheetView view="pageLayout" topLeftCell="A103" zoomScale="67" zoomScaleNormal="52" zoomScalePageLayoutView="67" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4480,7 +4253,7 @@
   <sheetData>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4499,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4519,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4539,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4613,7 +4386,7 @@
     </row>
     <row r="59" spans="1:5" ht="20">
       <c r="A59" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B59" s="11"/>
     </row>
@@ -4629,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4647,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4665,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4683,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -4701,7 +4474,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4737,13 +4510,17 @@
     </row>
     <row r="112" spans="1:2" ht="20">
       <c r="A112" s="12" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="15.5">
-      <c r="A113" s="24"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="24">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4752,10 +4529,10 @@
     </row>
     <row r="114" spans="1:7" ht="15.5">
       <c r="A114" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4764,8 +4541,12 @@
       <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" ht="15.5">
-      <c r="A115" s="13"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="24">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4774,10 +4555,10 @@
     </row>
     <row r="116" spans="1:7" ht="15.5">
       <c r="A116" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4786,8 +4567,12 @@
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" ht="15.5">
-      <c r="A117" s="13"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="24">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4795,11 +4580,11 @@
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" ht="15.5">
-      <c r="A118" s="24">
-        <v>3</v>
+      <c r="A118" s="15">
+        <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4808,79 +4593,13 @@
       <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7" ht="15.5">
-      <c r="A119" s="13"/>
+      <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.5">
-      <c r="A120" s="24">
-        <v>4</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" ht="15.5">
-      <c r="A122" s="24">
-        <v>5</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" ht="15.5">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.5">
-      <c r="A124" s="15">
-        <v>6</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.5">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Desktop\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F85B8-5A2D-4653-BBCE-53F1D7FDF634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3E4BB-5B6F-4FC9-83B8-2C55917771EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
+    <workbookView xWindow="20970" yWindow="70" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="2" xr2:uid="{5E72B897-C609-4826-8908-9F372A5EA9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -442,6 +442,24 @@
   </si>
   <si>
     <t>Als Entwickler möchte ich das Startguthaben der Bots zufällig festlegen, um ein aufregendes Spiel zu haben</t>
+  </si>
+  <si>
+    <t>Verbesserungsliste 4</t>
+  </si>
+  <si>
+    <t>Mehr Review-Prozesse schon ins Daily-Scrum einbringen</t>
+  </si>
+  <si>
+    <t>Pull Requests genauer ansehen</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Review Liste 4</t>
+  </si>
+  <si>
+    <t>GameController: beim All-In wird nicht die richtige Summe zum Pot hinzugefügt</t>
+  </si>
+  <si>
+    <t>GameController: Unentschieden wird noch nicht in allen Fällen richtig entschieden</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69796A29-818F-4118-8EC5-E6E5A8699E3C}">
   <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A9" zoomScale="68" zoomScaleNormal="108" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A233" zoomScale="68" zoomScaleNormal="108" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211:H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3976,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8196ECD-25D7-40D1-8279-045FB7F78B6C}">
-  <dimension ref="A6:E114"/>
+  <dimension ref="A6:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A98" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:B114"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A159" zoomScale="70" zoomScaleNormal="52" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B166" sqref="A164:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4228,6 +4246,39 @@
         <v>113</v>
       </c>
     </row>
+    <row r="164" spans="1:2" ht="20">
+      <c r="A164" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.5">
+      <c r="A165" s="20">
+        <v>1</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.5">
+      <c r="A166" s="20">
+        <v>2</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.5">
+      <c r="A167" s="20"/>
+      <c r="B167" s="17"/>
+    </row>
+    <row r="168" spans="1:2" ht="15.5">
+      <c r="A168" s="20"/>
+      <c r="B168" s="17"/>
+    </row>
+    <row r="169" spans="1:2" ht="15.5">
+      <c r="A169" s="20"/>
+      <c r="B169" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4240,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E69860-4485-4286-92A4-64B6306813C8}">
-  <dimension ref="A6:G119"/>
+  <dimension ref="A6:G175"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A103" zoomScale="67" zoomScaleNormal="52" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:I118"/>
+    <sheetView view="pageLayout" topLeftCell="A161" zoomScale="53" zoomScaleNormal="52" zoomScalePageLayoutView="53" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4601,6 +4652,50 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
+    <row r="169" spans="1:3" ht="20">
+      <c r="A169" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:3" ht="15.5">
+      <c r="A170" s="24">
+        <v>1</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" ht="15.5">
+      <c r="A171" s="24">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" ht="15.5">
+      <c r="A172" s="24"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" ht="15.5">
+      <c r="A173" s="24"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" ht="15.5">
+      <c r="A174" s="24"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" ht="15.5">
+      <c r="A175" s="15"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
